--- a/datasets/weather/Cliften Dublin 2018 Rainfall.xlsx
+++ b/datasets/weather/Cliften Dublin 2018 Rainfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Dropbox/R Projects/CT1100/datasets/weather/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BD3FF-D13F-AA47-8F70-C439E5268F9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ACFD25-2726-184A-A316-F674E7267103}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="460" windowWidth="27640" windowHeight="16040" xr2:uid="{26088C36-1AC1-2940-A52D-434B798019C3}"/>
   </bookViews>
@@ -487,12 +487,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1899F4A8-8F34-D34B-BCAE-0B15F4CA0A2C}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="15" width="6.83203125" customWidth="1"/>
   </cols>
